--- a/NEET_2024_Excel/Individual_Excel/210110.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/210110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2815,105 +2815,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="C143" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" t="s">
-        <v>6</v>
-      </c>
-      <c r="E143" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="C144" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5">
-      <c r="C145" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" t="s">
-        <v>6</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5">
-      <c r="C146" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="3:5">
-      <c r="C147" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="3:5">
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" t="s">
-        <v>6</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5">
-      <c r="C149" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" t="s">
-        <v>6</v>
-      </c>
-      <c r="E149" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="3:5">
-      <c r="C150" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" t="s">
-        <v>6</v>
-      </c>
-      <c r="E150" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="3:5">
-      <c r="C151" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" t="s">
-        <v>6</v>
-      </c>
-      <c r="E151" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
